--- a/Draft_tables.xlsx
+++ b/Draft_tables.xlsx
@@ -329,7 +329,7 @@
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/Draft_tables.xlsx
+++ b/Draft_tables.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t xml:space="preserve">Book ID</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN/key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big/medium/small</t>
   </si>
   <si>
     <t xml:space="preserve">Admin ID</t>
@@ -151,10 +166,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,12 +192,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -252,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,19 +299,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,21 +343,21 @@
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -591,11 +605,14 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="9"/>
+    </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -604,22 +621,36 @@
       <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>0.743055555555556</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -659,22 +690,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,23 +757,23 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13" t="s">
-        <v>35</v>
+      <c r="B42" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
